--- a/Test de efectividad .xlsx
+++ b/Test de efectividad .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiach\OneDrive\Escritorio\DAM\Programación\EfectividadBusquedaYOrdenacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE3D398D-CFF2-4017-93B7-ABB32FD07EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F05237-7E90-4891-96D2-A720764F308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9D741FE9-6AEE-48D8-8256-B4D3E082C507}"/>
+    <workbookView xWindow="-5760" yWindow="744" windowWidth="17280" windowHeight="8880" xr2:uid="{9D741FE9-6AEE-48D8-8256-B4D3E082C507}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">Bubble Method </t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>numero de valores</t>
+  </si>
+  <si>
+    <t>Selection Method</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>Numero de valores</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +417,822 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB4C6B3-2C3E-43E1-8D73-36B02419E6C3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(A4:C4)</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D24" si="0">AVERAGE(A5:C5)</f>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="E5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>103</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>99</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>100.66666666666667</v>
+      </c>
+      <c r="E6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>214</v>
+      </c>
+      <c r="B7">
+        <v>216</v>
+      </c>
+      <c r="C7">
+        <v>215</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="E7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>372</v>
+      </c>
+      <c r="B8">
+        <v>488</v>
+      </c>
+      <c r="C8">
+        <v>375</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>411.66666666666669</v>
+      </c>
+      <c r="E8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>577</v>
+      </c>
+      <c r="B9">
+        <v>613</v>
+      </c>
+      <c r="C9">
+        <v>597</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>595.66666666666663</v>
+      </c>
+      <c r="E9">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>847</v>
+      </c>
+      <c r="B10">
+        <v>839</v>
+      </c>
+      <c r="C10">
+        <v>850</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>845.33333333333337</v>
+      </c>
+      <c r="E10">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1129</v>
+      </c>
+      <c r="B11">
+        <v>1146</v>
+      </c>
+      <c r="C11">
+        <v>1132</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1135.6666666666667</v>
+      </c>
+      <c r="E11">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1500</v>
+      </c>
+      <c r="B12">
+        <v>1507</v>
+      </c>
+      <c r="C12">
+        <v>1495</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1500.6666666666667</v>
+      </c>
+      <c r="E12">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1839</v>
+      </c>
+      <c r="B13">
+        <v>1850</v>
+      </c>
+      <c r="C13">
+        <v>1846</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1845</v>
+      </c>
+      <c r="E13">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2280</v>
+      </c>
+      <c r="B14">
+        <v>2293</v>
+      </c>
+      <c r="C14">
+        <v>2297</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2290</v>
+      </c>
+      <c r="E14">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2762</v>
+      </c>
+      <c r="B15">
+        <v>2773</v>
+      </c>
+      <c r="C15">
+        <v>2827</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2787.3333333333335</v>
+      </c>
+      <c r="E15">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3283</v>
+      </c>
+      <c r="B16">
+        <v>3294</v>
+      </c>
+      <c r="C16">
+        <v>3293</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3290</v>
+      </c>
+      <c r="E16">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3835</v>
+      </c>
+      <c r="B17">
+        <v>3864</v>
+      </c>
+      <c r="C17">
+        <v>3844</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3847.6666666666665</v>
+      </c>
+      <c r="E17">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4496</v>
+      </c>
+      <c r="B18">
+        <v>4451</v>
+      </c>
+      <c r="C18">
+        <v>4469</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4472</v>
+      </c>
+      <c r="E18">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5116</v>
+      </c>
+      <c r="B19">
+        <v>5141</v>
+      </c>
+      <c r="C19">
+        <v>5148</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>5135</v>
+      </c>
+      <c r="E19">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6864</v>
+      </c>
+      <c r="B20">
+        <v>5851</v>
+      </c>
+      <c r="C20">
+        <v>5826</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>6180.333333333333</v>
+      </c>
+      <c r="E20">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6575</v>
+      </c>
+      <c r="B21">
+        <v>6550</v>
+      </c>
+      <c r="C21">
+        <v>6583</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>6569.333333333333</v>
+      </c>
+      <c r="E21">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7365</v>
+      </c>
+      <c r="B22">
+        <v>7353</v>
+      </c>
+      <c r="C22">
+        <v>7354</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>7357.333333333333</v>
+      </c>
+      <c r="E22">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>8221</v>
+      </c>
+      <c r="B23">
+        <v>8191</v>
+      </c>
+      <c r="C23">
+        <v>8208</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>8206.6666666666661</v>
+      </c>
+      <c r="E23">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>9070</v>
+      </c>
+      <c r="B24">
+        <v>9091</v>
+      </c>
+      <c r="C24">
+        <v>9121</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>9094</v>
+      </c>
+      <c r="E24">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(A31:C31)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D51" si="1">AVERAGE(A32:C32)</f>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="E32">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>66</v>
+      </c>
+      <c r="B33">
+        <v>63</v>
+      </c>
+      <c r="C33">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="E33">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>123</v>
+      </c>
+      <c r="B34">
+        <v>115</v>
+      </c>
+      <c r="C34">
+        <v>147</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>128.33333333333334</v>
+      </c>
+      <c r="E34">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>258</v>
+      </c>
+      <c r="B35">
+        <v>222</v>
+      </c>
+      <c r="C35">
+        <v>196</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>225.33333333333334</v>
+      </c>
+      <c r="E35">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>362</v>
+      </c>
+      <c r="B36">
+        <v>354</v>
+      </c>
+      <c r="C36">
+        <v>303</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>339.66666666666669</v>
+      </c>
+      <c r="E36">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>454</v>
+      </c>
+      <c r="B37">
+        <v>496</v>
+      </c>
+      <c r="C37">
+        <v>499</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>483</v>
+      </c>
+      <c r="E37">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>675</v>
+      </c>
+      <c r="B38">
+        <v>744</v>
+      </c>
+      <c r="C38">
+        <v>677</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>698.66666666666663</v>
+      </c>
+      <c r="E38">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>896</v>
+      </c>
+      <c r="B39">
+        <v>790</v>
+      </c>
+      <c r="C39">
+        <v>857</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>847.66666666666663</v>
+      </c>
+      <c r="E39">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1091</v>
+      </c>
+      <c r="B40">
+        <v>1024</v>
+      </c>
+      <c r="C40">
+        <v>1080</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>1065</v>
+      </c>
+      <c r="E40">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1297</v>
+      </c>
+      <c r="B41">
+        <v>1296</v>
+      </c>
+      <c r="C41">
+        <v>1386</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>1326.3333333333333</v>
+      </c>
+      <c r="E41">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1539</v>
+      </c>
+      <c r="B42">
+        <v>1614</v>
+      </c>
+      <c r="C42">
+        <v>1582</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>1578.3333333333333</v>
+      </c>
+      <c r="E42">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1802</v>
+      </c>
+      <c r="B43">
+        <v>1845</v>
+      </c>
+      <c r="C43">
+        <v>1789</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>1812</v>
+      </c>
+      <c r="E43">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2113</v>
+      </c>
+      <c r="B44">
+        <v>2158</v>
+      </c>
+      <c r="C44">
+        <v>2167</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>2146</v>
+      </c>
+      <c r="E44">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2486</v>
+      </c>
+      <c r="B45">
+        <v>2435</v>
+      </c>
+      <c r="C45">
+        <v>2490</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>2470.3333333333335</v>
+      </c>
+      <c r="E45">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2829</v>
+      </c>
+      <c r="B46">
+        <v>2916</v>
+      </c>
+      <c r="C46">
+        <v>2876</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>2873.6666666666665</v>
+      </c>
+      <c r="E46">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3223</v>
+      </c>
+      <c r="B47">
+        <v>3376</v>
+      </c>
+      <c r="C47">
+        <v>3352</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>3317</v>
+      </c>
+      <c r="E47">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3678</v>
+      </c>
+      <c r="B48">
+        <v>3810</v>
+      </c>
+      <c r="C48">
+        <v>3639</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>3709</v>
+      </c>
+      <c r="E48">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4199</v>
+      </c>
+      <c r="B49">
+        <v>12801</v>
+      </c>
+      <c r="C49">
+        <v>3995</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>6998.333333333333</v>
+      </c>
+      <c r="E49">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4533</v>
+      </c>
+      <c r="B50">
+        <v>14116</v>
+      </c>
+      <c r="C50">
+        <v>4490</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>7713</v>
+      </c>
+      <c r="E50">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4883</v>
+      </c>
+      <c r="B51">
+        <v>4966</v>
+      </c>
+      <c r="C51">
+        <v>15294</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>8381</v>
+      </c>
+      <c r="E51">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>